--- a/LeetCode 热题 Hot 100/0010. 正则表达式匹配(hard).xlsx
+++ b/LeetCode 热题 Hot 100/0010. 正则表达式匹配(hard).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F921F78-47E1-4F6F-A1B2-3F11CFB904A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7255C013-C056-44BC-ABC6-02162DE31F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,6 +213,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -226,15 +235,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -520,22 +520,22 @@
   <dimension ref="B3:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="11">
+      <c r="D4" s="8"/>
+      <c r="E4" s="6">
         <v>0</v>
       </c>
       <c r="F4" s="1">
@@ -569,9 +569,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -604,15 +604,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="5">
         <v>0</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="9">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="1">
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>1</v>
       </c>
@@ -656,7 +656,7 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="1">
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>2</v>
       </c>
@@ -700,13 +700,13 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>1</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>1</v>
       </c>
       <c r="J8" s="1">
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>3</v>
       </c>
@@ -744,10 +744,10 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
         <v>1</v>
       </c>
       <c r="J9" s="1">
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>4</v>
       </c>
@@ -788,7 +788,7 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>1</v>
       </c>
       <c r="J10" s="1">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -832,26 +832,26 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>1</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>1</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="4">
         <v>1</v>
       </c>
       <c r="O11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>6</v>
       </c>
@@ -876,23 +876,23 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
         <v>1</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="1">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>7</v>
       </c>
@@ -920,20 +920,20 @@
       <c r="K13" s="1">
         <v>0</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>1</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>8</v>
       </c>
@@ -970,11 +970,11 @@
       <c r="N14" s="1">
         <v>0</v>
       </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>9</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>10</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>11</v>
       </c>
@@ -1097,13 +1097,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="L19" s="8" t="s">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="L19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
